--- a/Table/StatReward.xlsx
+++ b/Table/StatReward.xlsx
@@ -902,7 +902,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -978,10 +978,10 @@
         <v>1001</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>300001</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>400001</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>19</v>
@@ -1016,10 +1016,10 @@
         <v>2001</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>300002</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>400002</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>20</v>

--- a/Table/StatReward.xlsx
+++ b/Table/StatReward.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Index</t>
   </si>
@@ -128,14 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/Data/Texture/Monk/Icons/Monk_2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +255,10 @@
   </si>
   <si>
     <t>AddNum</t>
+  </si>
+  <si>
+    <t>Assets/Data/Texture/Monk/Icons/Monk_39.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -750,7 +746,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -764,7 +760,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -778,7 +774,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -792,7 +788,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -806,83 +802,83 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -902,7 +898,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,7 +968,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7">
         <v>1001</v>
@@ -984,19 +980,19 @@
         <v>400001</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2" s="7">
         <v>10</v>
@@ -1010,7 +1006,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>2001</v>
@@ -1022,19 +1018,19 @@
         <v>400002</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K3" s="7">
         <v>10</v>
